--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2249430.184088259</v>
+        <v>2231561.003889776</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1703882.653759764</v>
+        <v>1703882.653759765</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230136</v>
+        <v>3254445.780230137</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.0817264605106</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,16 +752,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>88.05756064065922</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>4.987681053581084</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>117.8162772781929</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>38.83326460888583</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.0850531309659</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>87.7061602166668</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1214,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>45.02278574591164</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0845504614798</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>240.8497465180941</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>299.0836088433478</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.86265076959745</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.0974423103671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>81.45502508224243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1627,7 +1627,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>33.77768339218532</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>62.29701398645065</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176906</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>214.9544452055812</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>53.30003347745501</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.78499494299025</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>193.7787769293038</v>
+        <v>50.3365509593745</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>4.587648911254466</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>128.8291333340183</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>99.90681807664346</v>
       </c>
       <c r="I21" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183515</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.579478589971979</v>
       </c>
       <c r="T22" t="n">
-        <v>165.0140383262349</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>189.3798266460181</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
         <v>251.1150202768096</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>228.8122918537057</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I24" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S24" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T24" t="n">
         <v>193.9474046684609</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.697806127624</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.1476204707265</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1511159957132</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>187.3487355181132</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>190.2611418893952</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>177.9567660853834</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I27" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S27" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T27" t="n">
         <v>193.9474046684609</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.10274346693019</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>37.64269544013366</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.697806127624</v>
       </c>
       <c r="H28" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.1476204707265</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.4198296272988</v>
+        <v>391.3237359881888</v>
       </c>
       <c r="H29" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.544625213364</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I30" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S30" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T30" t="n">
         <v>193.9474046684609</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U31" t="n">
         <v>286.248492634809</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>147.6372238664248</v>
+        <v>143.8016643219858</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>162.0273917842167</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H32" t="n">
-        <v>309.9502217094637</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459731</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1150202768096</v>
       </c>
       <c r="V32" t="n">
-        <v>279.3037299692253</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I33" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S33" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T33" t="n">
         <v>193.9474046684609</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.1476204707265</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>201.4801154596065</v>
+        <v>140.5122218294815</v>
       </c>
       <c r="T34" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
-        <v>211.1048831787822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H35" t="n">
-        <v>309.9502217094637</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I35" t="n">
-        <v>63.85605731451312</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.3258060921759</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1150202768096</v>
+        <v>31.21204198876628</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I36" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S36" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T36" t="n">
         <v>193.9474046684609</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.801664321986</v>
+        <v>143.8016643219858</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>90.92855866479972</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H38" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921759</v>
       </c>
       <c r="T38" t="n">
-        <v>130.544625213364</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S39" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T39" t="n">
         <v>193.9474046684609</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.6150072695396</v>
       </c>
       <c r="X40" t="n">
-        <v>143.801664321986</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.4198296272988</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>81.37351427872393</v>
       </c>
       <c r="T41" t="n">
-        <v>189.3798266460181</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
         <v>251.1150202768096</v>
@@ -3836,7 +3836,7 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H42" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543412</v>
       </c>
       <c r="I42" t="n">
         <v>36.28891401906294</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.388042077384895</v>
+        <v>4.38804207738491</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>18.68593375938923</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T43" t="n">
         <v>222.420212896533</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.2296522567768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>358.4275172408022</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>412.4198296272988</v>
@@ -3997,7 +3997,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>99.3325832245973</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>38.68478532989402</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H45" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543412</v>
       </c>
       <c r="I45" t="n">
         <v>36.28891401906294</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.388042077384895</v>
+        <v>4.38804207738491</v>
       </c>
       <c r="S45" t="n">
         <v>143.0320641923714</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>143.801664321986</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>113.2349031554588</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>761.6974622895962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W2" t="n">
-        <v>761.6974622895962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>852.8634924192114</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C3" t="n">
-        <v>678.4104631380844</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D3" t="n">
-        <v>529.4760534768332</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>254.7627320334886</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>108.2281740603736</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="4">
@@ -4473,10 +4473,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>494.3473184075753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.2693145670932</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C6" t="n">
-        <v>259.2693145670932</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>259.2693145670932</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>259.2693145670932</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.2693145670932</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540.6514970160482</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C8" t="n">
-        <v>297.2027203719481</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D8" t="n">
-        <v>297.2027203719481</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E8" t="n">
-        <v>297.2027203719481</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F8" t="n">
-        <v>290.2572196227447</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>728.6161971483371</v>
+        <v>502.8591282797204</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.7661011803829</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C9" t="n">
-        <v>158.7661011803829</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D9" t="n">
-        <v>158.7661011803829</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>944.7798318121718</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>742.5932371709378</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>742.5932371709378</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>742.5932371709378</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>742.5932371709378</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>534.7417369654049</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>326.981438200451</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4947,22 +4947,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2218.321938686446</v>
+        <v>1916.217283289125</v>
       </c>
       <c r="C11" t="n">
-        <v>1849.359421746035</v>
+        <v>1547.254766348713</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.076849505535</v>
+        <v>1188.989067741963</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.288596907291</v>
+        <v>803.2008151437187</v>
       </c>
       <c r="F11" t="n">
-        <v>809.3026921176836</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="G11" t="n">
         <v>392.2149103541111</v>
@@ -5050,7 +5050,7 @@
         <v>1218.912065406601</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N11" t="n">
         <v>2477.937544449759</v>
@@ -5080,13 +5080,13 @@
         <v>3368.52686898746</v>
       </c>
       <c r="W11" t="n">
-        <v>3368.52686898746</v>
+        <v>3066.422213590139</v>
       </c>
       <c r="X11" t="n">
-        <v>2995.06111072638</v>
+        <v>2692.956455329059</v>
       </c>
       <c r="Y11" t="n">
-        <v>2604.921778750568</v>
+        <v>2302.817123353247</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>73.99179512662062</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835162</v>
+        <v>73.99179512662062</v>
       </c>
       <c r="K12" t="n">
-        <v>260.2588666468731</v>
+        <v>141.5996147899775</v>
       </c>
       <c r="L12" t="n">
-        <v>764.6204065129914</v>
+        <v>645.9611546560958</v>
       </c>
       <c r="M12" t="n">
-        <v>1405.165755980096</v>
+        <v>1286.5065041232</v>
       </c>
       <c r="N12" t="n">
-        <v>1660.196134132114</v>
+        <v>1959.712196375983</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884836</v>
+        <v>2509.148205128705</v>
       </c>
       <c r="P12" t="n">
         <v>2633.599911365673</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.9577110492563</v>
+        <v>221.9048887090137</v>
       </c>
       <c r="C13" t="n">
-        <v>372.0215281213494</v>
+        <v>221.9048887090137</v>
       </c>
       <c r="D13" t="n">
         <v>221.9048887090137</v>
@@ -5223,28 +5223,28 @@
         <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585965</v>
+        <v>943.4485153053677</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585965</v>
+        <v>918.3347266492086</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585965</v>
+        <v>692.7055299615736</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585965</v>
+        <v>403.5533535392534</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585965</v>
+        <v>403.5533535392534</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585965</v>
+        <v>403.5533535392534</v>
       </c>
       <c r="X13" t="n">
-        <v>845.9369256879477</v>
+        <v>403.5533535392534</v>
       </c>
       <c r="Y13" t="n">
-        <v>722.606175879496</v>
+        <v>403.5533535392534</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1397.061718429193</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.061718429193</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D14" t="n">
-        <v>1397.061718429193</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E14" t="n">
-        <v>1011.273465830949</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F14" t="n">
-        <v>928.9956627175729</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G14" t="n">
-        <v>511.9078809540005</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I14" t="n">
         <v>73.9917951266206</v>
@@ -5308,22 +5308,22 @@
         <v>3699.58975633103</v>
       </c>
       <c r="T14" t="n">
-        <v>3484.789894598741</v>
+        <v>3665.470884217712</v>
       </c>
       <c r="U14" t="n">
-        <v>3231.098191343892</v>
+        <v>3411.779180962862</v>
       </c>
       <c r="V14" t="n">
-        <v>2900.035304000321</v>
+        <v>3080.716293619292</v>
       </c>
       <c r="W14" t="n">
-        <v>2547.266648730207</v>
+        <v>2727.947638349177</v>
       </c>
       <c r="X14" t="n">
-        <v>2173.800890469127</v>
+        <v>2354.481880088098</v>
       </c>
       <c r="Y14" t="n">
-        <v>1783.661558493315</v>
+        <v>1964.342548112286</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>73.9917951266206</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266206</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K15" t="n">
-        <v>157.3616934996477</v>
+        <v>522.0794512893258</v>
       </c>
       <c r="L15" t="n">
-        <v>661.723233365766</v>
+        <v>659.3090493050195</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.26858283287</v>
+        <v>1299.854398772124</v>
       </c>
       <c r="N15" t="n">
-        <v>1975.474275085653</v>
+        <v>1973.060091024906</v>
       </c>
       <c r="O15" t="n">
-        <v>2524.910283838375</v>
+        <v>2522.496099777629</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2631.185727304927</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.33685256765</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.378057511657</v>
+        <v>602.8608417187642</v>
       </c>
       <c r="C16" t="n">
-        <v>216.378057511657</v>
+        <v>433.9246587908573</v>
       </c>
       <c r="D16" t="n">
-        <v>216.378057511657</v>
+        <v>283.8080193785215</v>
       </c>
       <c r="E16" t="n">
-        <v>216.378057511657</v>
+        <v>283.8080193785215</v>
       </c>
       <c r="F16" t="n">
-        <v>216.378057511657</v>
+        <v>136.9180718806112</v>
       </c>
       <c r="G16" t="n">
-        <v>216.378057511657</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H16" t="n">
-        <v>216.378057511657</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I16" t="n">
-        <v>91.86638288598328</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J16" t="n">
         <v>73.9917951266206</v>
@@ -5460,28 +5460,28 @@
         <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053672</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>943.4485153053672</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>726.3228130775074</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U16" t="n">
-        <v>437.1706366551871</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V16" t="n">
-        <v>437.1706366551871</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="W16" t="n">
-        <v>437.1706366551871</v>
+        <v>784.5093065490039</v>
       </c>
       <c r="X16" t="n">
-        <v>437.1706366551871</v>
+        <v>784.5093065490039</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.378057511657</v>
+        <v>784.5093065490039</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2094.732337045837</v>
+        <v>1240.846680926022</v>
       </c>
       <c r="C17" t="n">
-        <v>1725.769820105425</v>
+        <v>871.8841639856103</v>
       </c>
       <c r="D17" t="n">
-        <v>1725.769820105425</v>
+        <v>513.6184653788598</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.98156750718</v>
+        <v>127.8302127806156</v>
       </c>
       <c r="F17" t="n">
-        <v>928.9956627175729</v>
+        <v>127.8302127806156</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540005</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I17" t="n">
         <v>73.9917951266206</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403567</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160402</v>
+        <v>666.0988071604019</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406601</v>
@@ -5542,25 +5542,25 @@
         <v>3699.58975633103</v>
       </c>
       <c r="S17" t="n">
-        <v>3654.352387701747</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T17" t="n">
-        <v>3439.552525969458</v>
+        <v>3328.574857095569</v>
       </c>
       <c r="U17" t="n">
-        <v>3185.860822714609</v>
+        <v>3074.88315384072</v>
       </c>
       <c r="V17" t="n">
-        <v>2854.797935371038</v>
+        <v>2743.82026649715</v>
       </c>
       <c r="W17" t="n">
-        <v>2854.797935371038</v>
+        <v>2391.051611227035</v>
       </c>
       <c r="X17" t="n">
-        <v>2481.332177109959</v>
+        <v>2017.585852965955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2481.332177109959</v>
+        <v>1627.446520990144</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>73.9917951266206</v>
       </c>
       <c r="J18" t="n">
-        <v>73.9917951266206</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K18" t="n">
-        <v>141.5996147899774</v>
+        <v>316.6325031462274</v>
       </c>
       <c r="L18" t="n">
-        <v>645.9611546560957</v>
+        <v>820.9940430123456</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.5065041232</v>
+        <v>1461.53939247945</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.712196375982</v>
+        <v>1660.196134132114</v>
       </c>
       <c r="O18" t="n">
-        <v>2509.148205128705</v>
+        <v>2209.632142884837</v>
       </c>
       <c r="P18" t="n">
-        <v>2617.837832656003</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.33685256765</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266206</v>
+        <v>671.8109351927719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266206</v>
+        <v>502.874752264865</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266206</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266206</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266206</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266206</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266206</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I19" t="n">
         <v>73.9917951266206</v>
@@ -5697,28 +5697,28 @@
         <v>1073.926476585965</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585965</v>
+        <v>943.4485153053672</v>
       </c>
       <c r="S19" t="n">
-        <v>878.1903382735364</v>
+        <v>892.6035143363021</v>
       </c>
       <c r="T19" t="n">
-        <v>652.5611415859014</v>
+        <v>892.6035143363021</v>
       </c>
       <c r="U19" t="n">
-        <v>363.4089651635812</v>
+        <v>892.6035143363021</v>
       </c>
       <c r="V19" t="n">
-        <v>363.4089651635812</v>
+        <v>892.6035143363021</v>
       </c>
       <c r="W19" t="n">
-        <v>73.9917951266206</v>
+        <v>892.6035143363021</v>
       </c>
       <c r="X19" t="n">
-        <v>73.9917951266206</v>
+        <v>892.6035143363021</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9917951266206</v>
+        <v>671.8109351927719</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1597.994168061635</v>
+        <v>1650.753421684042</v>
       </c>
       <c r="C20" t="n">
-        <v>1229.031651121223</v>
+        <v>1646.119432884796</v>
       </c>
       <c r="D20" t="n">
-        <v>870.7659525144725</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E20" t="n">
-        <v>484.9776999162282</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F20" t="n">
-        <v>73.9917951266206</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G20" t="n">
         <v>73.9917951266206</v>
@@ -5752,10 +5752,10 @@
         <v>73.9917951266206</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160402</v>
+        <v>666.0988071604015</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406601</v>
@@ -5767,10 +5767,10 @@
         <v>2477.937544449758</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216836</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.41379555613</v>
+        <v>3454.413795556129</v>
       </c>
       <c r="Q20" t="n">
         <v>3699.58975633103</v>
@@ -5785,19 +5785,19 @@
         <v>3484.789894598741</v>
       </c>
       <c r="U20" t="n">
-        <v>3231.098191343892</v>
+        <v>3484.789894598741</v>
       </c>
       <c r="V20" t="n">
-        <v>3100.967753632762</v>
+        <v>3153.72700725517</v>
       </c>
       <c r="W20" t="n">
-        <v>2748.199098362648</v>
+        <v>2800.958351985056</v>
       </c>
       <c r="X20" t="n">
-        <v>2374.733340101568</v>
+        <v>2427.492593723976</v>
       </c>
       <c r="Y20" t="n">
-        <v>1984.594008125756</v>
+        <v>2037.353261748164</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>73.9917951266206</v>
       </c>
       <c r="J21" t="n">
-        <v>73.9917951266206</v>
+        <v>89.75387383629085</v>
       </c>
       <c r="K21" t="n">
-        <v>157.3616934996463</v>
+        <v>157.3616934996477</v>
       </c>
       <c r="L21" t="n">
-        <v>661.7232333657646</v>
+        <v>661.723233365766</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.268582832869</v>
+        <v>1302.26858283287</v>
       </c>
       <c r="N21" t="n">
-        <v>1975.474275085651</v>
+        <v>1975.474275085653</v>
       </c>
       <c r="O21" t="n">
-        <v>2524.910283838374</v>
+        <v>2524.910283838375</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365673</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.33685256765</v>
@@ -5916,16 +5916,16 @@
         <v>175.0397247222303</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230486</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422864</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783907</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669895</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165605</v>
@@ -5937,22 +5937,22 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585965</v>
+        <v>1064.250235585993</v>
       </c>
       <c r="T22" t="n">
-        <v>907.2456297917884</v>
+        <v>838.6210388983577</v>
       </c>
       <c r="U22" t="n">
-        <v>618.0934533694681</v>
+        <v>549.4688624760375</v>
       </c>
       <c r="V22" t="n">
-        <v>363.4089651635812</v>
+        <v>294.7843742701507</v>
       </c>
       <c r="W22" t="n">
-        <v>73.9917951266206</v>
+        <v>294.7843742701507</v>
       </c>
       <c r="X22" t="n">
-        <v>73.9917951266206</v>
+        <v>294.7843742701507</v>
       </c>
       <c r="Y22" t="n">
         <v>73.9917951266206</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2026.701708859132</v>
+        <v>2127.037651510241</v>
       </c>
       <c r="C23" t="n">
-        <v>1657.739191918721</v>
+        <v>1758.075134569829</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.47349331197</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E23" t="n">
-        <v>913.685240713726</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F23" t="n">
-        <v>502.6993359241184</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G23" t="n">
-        <v>86.11364943189737</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="H23" t="n">
-        <v>86.11364943189737</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I23" t="n">
         <v>86.11364943189737</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826235</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K23" t="n">
         <v>782.5847574885279</v>
       </c>
       <c r="L23" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N23" t="n">
         <v>2846.297482930777</v>
@@ -6019,22 +6019,22 @@
         <v>4305.682471594869</v>
       </c>
       <c r="T23" t="n">
-        <v>4114.389717406972</v>
+        <v>4093.080531912921</v>
       </c>
       <c r="U23" t="n">
-        <v>3860.738181773831</v>
+        <v>3839.42899627978</v>
       </c>
       <c r="V23" t="n">
-        <v>3529.67529443026</v>
+        <v>3508.366108936209</v>
       </c>
       <c r="W23" t="n">
-        <v>3176.906639160146</v>
+        <v>3277.242581811254</v>
       </c>
       <c r="X23" t="n">
-        <v>2803.440880899066</v>
+        <v>2903.776823550174</v>
       </c>
       <c r="Y23" t="n">
-        <v>2413.301548923254</v>
+        <v>2513.637491574363</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869302</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9434958564821</v>
+        <v>339.7736208434869</v>
       </c>
       <c r="L24" t="n">
-        <v>409.3423852995833</v>
+        <v>901.3044521370125</v>
       </c>
       <c r="M24" t="n">
-        <v>1064.494518601629</v>
+        <v>1608.563668198629</v>
       </c>
       <c r="N24" t="n">
-        <v>1806.179794984374</v>
+        <v>1875.699993981257</v>
       </c>
       <c r="O24" t="n">
         <v>2418.26124464332</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.5250047777616</v>
+        <v>551.5018586932789</v>
       </c>
       <c r="C25" t="n">
-        <v>552.5250047777616</v>
+        <v>551.5018586932789</v>
       </c>
       <c r="D25" t="n">
-        <v>402.4083653654259</v>
+        <v>401.3852192809431</v>
       </c>
       <c r="E25" t="n">
-        <v>254.4952717830328</v>
+        <v>401.3852192809431</v>
       </c>
       <c r="F25" t="n">
         <v>254.4952717830328</v>
@@ -6156,10 +6156,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M25" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841302</v>
@@ -6171,28 +6171,28 @@
         <v>1289.276287324571</v>
       </c>
       <c r="R25" t="n">
-        <v>1289.276287324571</v>
+        <v>1168.925155535958</v>
       </c>
       <c r="S25" t="n">
-        <v>1289.276287324571</v>
+        <v>965.4098873949417</v>
       </c>
       <c r="T25" t="n">
-        <v>1069.93172571274</v>
+        <v>740.7430056812721</v>
       </c>
       <c r="U25" t="n">
-        <v>1069.93172571274</v>
+        <v>740.7430056812721</v>
       </c>
       <c r="V25" t="n">
-        <v>1069.93172571274</v>
+        <v>551.5018586932789</v>
       </c>
       <c r="W25" t="n">
-        <v>780.514555675779</v>
+        <v>551.5018586932789</v>
       </c>
       <c r="X25" t="n">
-        <v>552.5250047777616</v>
+        <v>551.5018586932789</v>
       </c>
       <c r="Y25" t="n">
-        <v>552.5250047777616</v>
+        <v>551.5018586932789</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2054.330430941758</v>
+        <v>1860.618981857832</v>
       </c>
       <c r="C26" t="n">
-        <v>1685.367914001346</v>
+        <v>1491.65646491742</v>
       </c>
       <c r="D26" t="n">
-        <v>1327.102215394596</v>
+        <v>1299.47349331197</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.102215394596</v>
+        <v>913.685240713726</v>
       </c>
       <c r="F26" t="n">
-        <v>916.1163106049883</v>
+        <v>502.6993359241184</v>
       </c>
       <c r="G26" t="n">
-        <v>499.5306241127672</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="H26" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="I26" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J26" t="n">
-        <v>316.5202242826238</v>
+        <v>316.5202242826239</v>
       </c>
       <c r="K26" t="n">
         <v>782.5847574885281</v>
       </c>
       <c r="L26" t="n">
-        <v>1413.055650717814</v>
+        <v>1413.055650717815</v>
       </c>
       <c r="M26" t="n">
-        <v>2131.182543644152</v>
+        <v>2131.182543644153</v>
       </c>
       <c r="N26" t="n">
         <v>2846.297482930777</v>
       </c>
       <c r="O26" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996234</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.452759614947</v>
+        <v>3976.452759614946</v>
       </c>
       <c r="Q26" t="n">
-        <v>4274.770370373403</v>
+        <v>4274.770370373401</v>
       </c>
       <c r="R26" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.90893008762</v>
+        <v>4160.908930087619</v>
       </c>
       <c r="T26" t="n">
-        <v>3948.306990405673</v>
+        <v>3948.306990405671</v>
       </c>
       <c r="U26" t="n">
-        <v>3694.655454772532</v>
+        <v>3694.65545477253</v>
       </c>
       <c r="V26" t="n">
-        <v>3363.592567428961</v>
+        <v>3363.592567428959</v>
       </c>
       <c r="W26" t="n">
-        <v>3010.823912158847</v>
+        <v>3010.823912158845</v>
       </c>
       <c r="X26" t="n">
-        <v>2831.069602981692</v>
+        <v>2637.358153897765</v>
       </c>
       <c r="Y26" t="n">
-        <v>2440.93027100588</v>
+        <v>2247.218821921953</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G27" t="n">
         <v>221.0905542041166</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7691181380216</v>
+        <v>122.7691181380215</v>
       </c>
       <c r="I27" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J27" t="n">
-        <v>229.6488472869302</v>
+        <v>229.6488472869301</v>
       </c>
       <c r="K27" t="n">
-        <v>339.7736208434869</v>
+        <v>339.7736208434868</v>
       </c>
       <c r="L27" t="n">
-        <v>534.172510286588</v>
+        <v>901.3044521370125</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.431726348205</v>
+        <v>1608.563668198629</v>
       </c>
       <c r="N27" t="n">
-        <v>1880.825350114799</v>
+        <v>1875.699993981257</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.983103689782</v>
+        <v>2418.26124464332</v>
       </c>
       <c r="P27" t="n">
         <v>2577.229361417492</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>766.4841115621887</v>
+        <v>292.5181964700364</v>
       </c>
       <c r="C28" t="n">
-        <v>703.7540676561986</v>
+        <v>292.5181964700364</v>
       </c>
       <c r="D28" t="n">
-        <v>553.6374282438628</v>
+        <v>292.5181964700364</v>
       </c>
       <c r="E28" t="n">
-        <v>553.6374282438628</v>
+        <v>254.4952717830327</v>
       </c>
       <c r="F28" t="n">
-        <v>406.7474807459524</v>
+        <v>254.4952717830327</v>
       </c>
       <c r="G28" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="K28" t="n">
         <v>212.8076375348876</v>
       </c>
       <c r="L28" t="n">
-        <v>430.4587576962459</v>
+        <v>430.4587576962458</v>
       </c>
       <c r="M28" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841302</v>
@@ -6408,28 +6408,28 @@
         <v>1289.276287324571</v>
       </c>
       <c r="R28" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="S28" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="T28" t="n">
-        <v>1168.925155535959</v>
+        <v>1064.609405610901</v>
       </c>
       <c r="U28" t="n">
-        <v>1168.925155535959</v>
+        <v>1064.609405610901</v>
       </c>
       <c r="V28" t="n">
-        <v>1168.925155535959</v>
+        <v>809.9249174050143</v>
       </c>
       <c r="W28" t="n">
-        <v>1168.925155535959</v>
+        <v>520.5077473680537</v>
       </c>
       <c r="X28" t="n">
-        <v>1168.925155535959</v>
+        <v>292.5181964700364</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.1325763924284</v>
+        <v>292.5181964700364</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2339.782740888894</v>
+        <v>2005.392523365082</v>
       </c>
       <c r="C29" t="n">
-        <v>1970.820223948482</v>
+        <v>1636.43000642467</v>
       </c>
       <c r="D29" t="n">
-        <v>1612.554525341732</v>
+        <v>1278.16430781792</v>
       </c>
       <c r="E29" t="n">
-        <v>1226.766272743487</v>
+        <v>892.3760552196754</v>
       </c>
       <c r="F29" t="n">
-        <v>815.7803679538798</v>
+        <v>481.3901504300679</v>
       </c>
       <c r="G29" t="n">
-        <v>399.1946814616588</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="H29" t="n">
         <v>86.11364943189737</v>
@@ -6463,16 +6463,16 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826235</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K29" t="n">
         <v>782.5847574885279</v>
       </c>
       <c r="L29" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M29" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N29" t="n">
         <v>2846.297482930777</v>
@@ -6490,25 +6490,25 @@
         <v>4305.682471594869</v>
       </c>
       <c r="S29" t="n">
-        <v>4173.819213803592</v>
+        <v>4305.682471594869</v>
       </c>
       <c r="T29" t="n">
-        <v>4173.819213803592</v>
+        <v>4093.080531912921</v>
       </c>
       <c r="U29" t="n">
-        <v>4173.819213803592</v>
+        <v>3839.42899627978</v>
       </c>
       <c r="V29" t="n">
-        <v>3842.756326460022</v>
+        <v>3508.366108936209</v>
       </c>
       <c r="W29" t="n">
-        <v>3489.987671189907</v>
+        <v>3155.597453666095</v>
       </c>
       <c r="X29" t="n">
-        <v>3116.521912928828</v>
+        <v>2782.131695405015</v>
       </c>
       <c r="Y29" t="n">
-        <v>2726.382580953016</v>
+        <v>2391.992363429204</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J30" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869302</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9434958564821</v>
+        <v>339.7736208434869</v>
       </c>
       <c r="L30" t="n">
-        <v>409.3423852995833</v>
+        <v>901.3044521370125</v>
       </c>
       <c r="M30" t="n">
-        <v>1064.494518601629</v>
+        <v>1608.563668198629</v>
       </c>
       <c r="N30" t="n">
-        <v>1806.179794984374</v>
+        <v>1875.699993981257</v>
       </c>
       <c r="O30" t="n">
         <v>2418.26124464332</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="C31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="D31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="E31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="F31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="G31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="H31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="I31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="J31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="K31" t="n">
-        <v>3229.213821805185</v>
+        <v>212.8076375348876</v>
       </c>
       <c r="L31" t="n">
-        <v>3446.864941966543</v>
+        <v>430.4587576962459</v>
       </c>
       <c r="M31" t="n">
-        <v>3686.736654332319</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N31" t="n">
-        <v>3926.33936993953</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O31" t="n">
-        <v>4131.634963111599</v>
+        <v>1115.228778841302</v>
       </c>
       <c r="P31" t="n">
-        <v>4283.780126751075</v>
+        <v>1267.373942480777</v>
       </c>
       <c r="Q31" t="n">
-        <v>4305.682471594869</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="R31" t="n">
-        <v>4305.682471594869</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="S31" t="n">
-        <v>4305.682471594869</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="T31" t="n">
-        <v>4305.682471594869</v>
+        <v>1064.609405610901</v>
       </c>
       <c r="U31" t="n">
-        <v>4016.542580044556</v>
+        <v>775.4695140605891</v>
       </c>
       <c r="V31" t="n">
-        <v>3761.85809183867</v>
+        <v>520.7850258547022</v>
       </c>
       <c r="W31" t="n">
-        <v>3472.440921801709</v>
+        <v>231.3678558177416</v>
       </c>
       <c r="X31" t="n">
-        <v>3323.312412845724</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="Y31" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189737</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2054.330430941758</v>
+        <v>2217.994463047027</v>
       </c>
       <c r="C32" t="n">
-        <v>1685.367914001346</v>
+        <v>1849.031946106616</v>
       </c>
       <c r="D32" t="n">
-        <v>1327.102215394596</v>
+        <v>1490.766247499865</v>
       </c>
       <c r="E32" t="n">
         <v>1327.102215394596</v>
@@ -6697,10 +6697,10 @@
         <v>186.4495920830058</v>
       </c>
       <c r="I32" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J32" t="n">
-        <v>316.5202242826238</v>
+        <v>316.5202242826239</v>
       </c>
       <c r="K32" t="n">
         <v>782.5847574885281</v>
@@ -6715,37 +6715,37 @@
         <v>2846.297482930777</v>
       </c>
       <c r="O32" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996234</v>
       </c>
       <c r="P32" t="n">
-        <v>3976.452759614947</v>
+        <v>3976.452759614946</v>
       </c>
       <c r="Q32" t="n">
-        <v>4274.770370373403</v>
+        <v>4274.770370373401</v>
       </c>
       <c r="R32" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="S32" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="T32" t="n">
-        <v>4093.080531912921</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="U32" t="n">
-        <v>3839.42899627978</v>
+        <v>4052.030935961726</v>
       </c>
       <c r="V32" t="n">
-        <v>3557.304016512886</v>
+        <v>3720.968048618155</v>
       </c>
       <c r="W32" t="n">
-        <v>3204.535361242772</v>
+        <v>3368.199393348041</v>
       </c>
       <c r="X32" t="n">
-        <v>2831.069602981692</v>
+        <v>2994.733635086961</v>
       </c>
       <c r="Y32" t="n">
-        <v>2440.93027100588</v>
+        <v>2604.594303111149</v>
       </c>
     </row>
     <row r="33">
@@ -6767,31 +6767,31 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G33" t="n">
         <v>221.0905542041166</v>
       </c>
       <c r="H33" t="n">
-        <v>122.7691181380216</v>
+        <v>122.7691181380215</v>
       </c>
       <c r="I33" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J33" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869301</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9434958564821</v>
+        <v>339.7736208434868</v>
       </c>
       <c r="L33" t="n">
-        <v>409.3423852995833</v>
+        <v>901.3044521370125</v>
       </c>
       <c r="M33" t="n">
-        <v>1064.494518601629</v>
+        <v>1608.563668198629</v>
       </c>
       <c r="N33" t="n">
-        <v>1806.179794984374</v>
+        <v>1875.699993981257</v>
       </c>
       <c r="O33" t="n">
         <v>2418.26124464332</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="C34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="D34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="E34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="F34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="G34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="H34" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="I34" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J34" t="n">
-        <v>3102.519833702194</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="K34" t="n">
-        <v>3229.213821805185</v>
+        <v>212.8076375348876</v>
       </c>
       <c r="L34" t="n">
-        <v>3446.864941966543</v>
+        <v>430.4587576962458</v>
       </c>
       <c r="M34" t="n">
-        <v>3686.736654332319</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N34" t="n">
-        <v>3926.33936993953</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O34" t="n">
-        <v>4131.634963111599</v>
+        <v>1115.228778841302</v>
       </c>
       <c r="P34" t="n">
-        <v>4283.780126751075</v>
+        <v>1267.373942480777</v>
       </c>
       <c r="Q34" t="n">
-        <v>4305.682471594869</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="R34" t="n">
-        <v>4185.331339806256</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="S34" t="n">
-        <v>3981.81607166524</v>
+        <v>1147.344750123074</v>
       </c>
       <c r="T34" t="n">
-        <v>3757.14918995157</v>
+        <v>1147.344750123074</v>
       </c>
       <c r="U34" t="n">
-        <v>3468.009298401258</v>
+        <v>858.2048585727622</v>
       </c>
       <c r="V34" t="n">
-        <v>3254.772042665114</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W34" t="n">
-        <v>3254.772042665114</v>
+        <v>314.1032003299147</v>
       </c>
       <c r="X34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="Y34" t="n">
-        <v>3254.772042665114</v>
+        <v>86.11364943189734</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2404.283808883351</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C35" t="n">
-        <v>2035.32129194294</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D35" t="n">
-        <v>1677.055593336189</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E35" t="n">
-        <v>1291.267340737945</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F35" t="n">
-        <v>880.2814359483375</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G35" t="n">
-        <v>463.6957494561165</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H35" t="n">
-        <v>150.6147174263551</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I35" t="n">
         <v>86.11364943189737</v>
       </c>
       <c r="J35" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L35" t="n">
         <v>1413.055650717815</v>
@@ -6952,7 +6952,7 @@
         <v>2846.297482930778</v>
       </c>
       <c r="O35" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996236</v>
       </c>
       <c r="P35" t="n">
         <v>3976.452759614947</v>
@@ -6964,25 +6964,25 @@
         <v>4305.682471594869</v>
       </c>
       <c r="S35" t="n">
-        <v>4160.90893008762</v>
+        <v>4305.682471594869</v>
       </c>
       <c r="T35" t="n">
-        <v>4160.90893008762</v>
+        <v>4305.682471594869</v>
       </c>
       <c r="U35" t="n">
-        <v>3907.257394454479</v>
+        <v>4274.155156454701</v>
       </c>
       <c r="V35" t="n">
-        <v>3907.257394454479</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="W35" t="n">
-        <v>3554.488739184365</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X35" t="n">
-        <v>3181.022980923285</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y35" t="n">
-        <v>2790.883648947473</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>104.8187222999254</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9434958564821</v>
+        <v>416.0232940055665</v>
       </c>
       <c r="L36" t="n">
-        <v>409.3423852995833</v>
+        <v>977.5541252990922</v>
       </c>
       <c r="M36" t="n">
-        <v>1064.494518601629</v>
+        <v>1223.765328248209</v>
       </c>
       <c r="N36" t="n">
-        <v>1806.179794984374</v>
+        <v>1490.901654030837</v>
       </c>
       <c r="O36" t="n">
-        <v>2418.26124464332</v>
+        <v>2102.983103689782</v>
       </c>
       <c r="P36" t="n">
         <v>2577.229361417492</v>
@@ -7104,10 +7104,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M37" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841302</v>
@@ -7128,13 +7128,13 @@
         <v>1064.609405610901</v>
       </c>
       <c r="U37" t="n">
-        <v>775.4695140605893</v>
+        <v>775.4695140605891</v>
       </c>
       <c r="V37" t="n">
-        <v>520.7850258547024</v>
+        <v>520.7850258547022</v>
       </c>
       <c r="W37" t="n">
-        <v>231.3678558177418</v>
+        <v>231.3678558177416</v>
       </c>
       <c r="X37" t="n">
         <v>86.11364943189737</v>
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2339.782740888894</v>
+        <v>1860.618981857833</v>
       </c>
       <c r="C38" t="n">
-        <v>1970.820223948482</v>
+        <v>1491.656464917422</v>
       </c>
       <c r="D38" t="n">
-        <v>1612.554525341732</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E38" t="n">
-        <v>1226.766272743487</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F38" t="n">
-        <v>815.7803679538798</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G38" t="n">
-        <v>399.1946814616588</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="H38" t="n">
-        <v>86.11364943189737</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I38" t="n">
         <v>86.11364943189737</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826235</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K38" t="n">
         <v>782.5847574885279</v>
       </c>
       <c r="L38" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M38" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N38" t="n">
         <v>2846.297482930777</v>
@@ -7201,25 +7201,25 @@
         <v>4305.682471594869</v>
       </c>
       <c r="S38" t="n">
-        <v>4305.682471594869</v>
+        <v>4160.90893008762</v>
       </c>
       <c r="T38" t="n">
-        <v>4173.819213803592</v>
+        <v>3948.306990405673</v>
       </c>
       <c r="U38" t="n">
-        <v>4173.819213803592</v>
+        <v>3694.655454772532</v>
       </c>
       <c r="V38" t="n">
-        <v>3842.756326460022</v>
+        <v>3363.592567428961</v>
       </c>
       <c r="W38" t="n">
-        <v>3489.987671189907</v>
+        <v>3010.823912158847</v>
       </c>
       <c r="X38" t="n">
-        <v>3116.521912928828</v>
+        <v>2637.358153897767</v>
       </c>
       <c r="Y38" t="n">
-        <v>2726.382580953016</v>
+        <v>2247.218821921955</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J39" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869302</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9434958564821</v>
+        <v>601.5942054859397</v>
       </c>
       <c r="L39" t="n">
-        <v>409.3423852995833</v>
+        <v>795.9930949290408</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.6016013612</v>
+        <v>1454.418214685591</v>
       </c>
       <c r="N39" t="n">
-        <v>1806.179794984374</v>
+        <v>2196.103491068337</v>
       </c>
       <c r="O39" t="n">
         <v>2418.26124464332</v>
@@ -7341,10 +7341,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841302</v>
@@ -7365,13 +7365,13 @@
         <v>1064.609405610901</v>
       </c>
       <c r="U40" t="n">
-        <v>775.4695140605893</v>
+        <v>775.4695140605891</v>
       </c>
       <c r="V40" t="n">
-        <v>520.7850258547024</v>
+        <v>520.7850258547022</v>
       </c>
       <c r="W40" t="n">
-        <v>231.3678558177418</v>
+        <v>314.1032003299147</v>
       </c>
       <c r="X40" t="n">
         <v>86.11364943189737</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2026.701708859132</v>
+        <v>1923.197054396673</v>
       </c>
       <c r="C41" t="n">
-        <v>1657.739191918721</v>
+        <v>1554.234537456261</v>
       </c>
       <c r="D41" t="n">
-        <v>1299.47349331197</v>
+        <v>1195.968838849511</v>
       </c>
       <c r="E41" t="n">
-        <v>913.685240713726</v>
+        <v>810.1805862512663</v>
       </c>
       <c r="F41" t="n">
-        <v>502.6993359241184</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="G41" t="n">
-        <v>86.11364943189737</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H41" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="I41" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J41" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826238</v>
       </c>
       <c r="K41" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885281</v>
       </c>
       <c r="L41" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M41" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N41" t="n">
         <v>2846.297482930777</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996234</v>
       </c>
       <c r="P41" t="n">
-        <v>3976.452759614947</v>
+        <v>3976.452759614946</v>
       </c>
       <c r="Q41" t="n">
-        <v>4274.770370373403</v>
+        <v>4274.770370373402</v>
       </c>
       <c r="R41" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594868</v>
       </c>
       <c r="S41" t="n">
-        <v>4305.682471594869</v>
+        <v>4223.48700262646</v>
       </c>
       <c r="T41" t="n">
-        <v>4114.389717406972</v>
+        <v>4010.885062944512</v>
       </c>
       <c r="U41" t="n">
-        <v>3860.738181773831</v>
+        <v>3757.233527311371</v>
       </c>
       <c r="V41" t="n">
-        <v>3529.67529443026</v>
+        <v>3426.170639967801</v>
       </c>
       <c r="W41" t="n">
-        <v>3176.906639160146</v>
+        <v>3073.401984697686</v>
       </c>
       <c r="X41" t="n">
-        <v>2803.440880899066</v>
+        <v>2699.936226436606</v>
       </c>
       <c r="Y41" t="n">
-        <v>2413.301548923254</v>
+        <v>2309.796894460795</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G42" t="n">
         <v>221.0905542041166</v>
@@ -7487,28 +7487,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I42" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J42" t="n">
-        <v>127.3571946707783</v>
+        <v>229.6488472869301</v>
       </c>
       <c r="K42" t="n">
-        <v>237.4819682273351</v>
+        <v>344.7835943223826</v>
       </c>
       <c r="L42" t="n">
-        <v>431.8808576704363</v>
+        <v>539.1824837654838</v>
       </c>
       <c r="M42" t="n">
-        <v>1139.140073732053</v>
+        <v>1246.4416998271</v>
       </c>
       <c r="N42" t="n">
-        <v>1880.825350114799</v>
+        <v>1988.126976209846</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.983103689782</v>
+        <v>2210.284729784829</v>
       </c>
       <c r="P42" t="n">
-        <v>2577.229361417492</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q42" t="n">
         <v>2633.576141175236</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.11364943189737</v>
+        <v>553.0795653545331</v>
       </c>
       <c r="C43" t="n">
-        <v>86.11364943189737</v>
+        <v>384.1433824266262</v>
       </c>
       <c r="D43" t="n">
-        <v>86.11364943189737</v>
+        <v>234.0267430142905</v>
       </c>
       <c r="E43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="F43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="G43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="H43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="K43" t="n">
         <v>212.8076375348876</v>
@@ -7578,10 +7578,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M43" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692326</v>
       </c>
       <c r="O43" t="n">
         <v>1115.228778841302</v>
@@ -7596,25 +7596,25 @@
         <v>1289.276287324571</v>
       </c>
       <c r="S43" t="n">
-        <v>1289.276287324571</v>
+        <v>1085.761019183554</v>
       </c>
       <c r="T43" t="n">
-        <v>1064.609405610901</v>
+        <v>861.0941374698848</v>
       </c>
       <c r="U43" t="n">
-        <v>775.4695140605893</v>
+        <v>571.9542459195727</v>
       </c>
       <c r="V43" t="n">
-        <v>775.4695140605893</v>
+        <v>571.9542459195727</v>
       </c>
       <c r="W43" t="n">
-        <v>486.0523440236287</v>
+        <v>571.9542459195727</v>
       </c>
       <c r="X43" t="n">
-        <v>258.0627931256113</v>
+        <v>571.9542459195727</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.11364943189737</v>
+        <v>571.9542459195727</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.392523365082</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.43000642467</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.16430781792</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E44" t="n">
-        <v>916.1163106049883</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F44" t="n">
-        <v>916.1163106049883</v>
+        <v>815.7803679538798</v>
       </c>
       <c r="G44" t="n">
-        <v>499.5306241127672</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H44" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="I44" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5202242826238</v>
+        <v>316.5202242826239</v>
       </c>
       <c r="K44" t="n">
         <v>782.5847574885281</v>
@@ -7669,31 +7669,31 @@
         <v>3976.452759614947</v>
       </c>
       <c r="Q44" t="n">
-        <v>4274.770370373403</v>
+        <v>4274.770370373402</v>
       </c>
       <c r="R44" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594868</v>
       </c>
       <c r="S44" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594868</v>
       </c>
       <c r="T44" t="n">
-        <v>4093.080531912921</v>
+        <v>4093.08053191292</v>
       </c>
       <c r="U44" t="n">
-        <v>3839.42899627978</v>
+        <v>3839.428996279779</v>
       </c>
       <c r="V44" t="n">
         <v>3508.366108936209</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.597453666095</v>
+        <v>3155.597453666094</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.131695405015</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y44" t="n">
-        <v>2391.992363429204</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G45" t="n">
         <v>221.0905542041166</v>
@@ -7724,28 +7724,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I45" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J45" t="n">
-        <v>229.6488472869302</v>
+        <v>104.8187222999254</v>
       </c>
       <c r="K45" t="n">
-        <v>344.7835943223822</v>
+        <v>214.9434958564821</v>
       </c>
       <c r="L45" t="n">
-        <v>539.1824837654834</v>
+        <v>409.3423852995833</v>
       </c>
       <c r="M45" t="n">
-        <v>1246.4416998271</v>
+        <v>1116.6016013612</v>
       </c>
       <c r="N45" t="n">
-        <v>1988.126976209846</v>
+        <v>1858.286877743945</v>
       </c>
       <c r="O45" t="n">
-        <v>2210.284729784829</v>
+        <v>2418.26124464332</v>
       </c>
       <c r="P45" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417492</v>
       </c>
       <c r="Q45" t="n">
         <v>2633.576141175236</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>231.3678558177418</v>
+        <v>255.0498323598043</v>
       </c>
       <c r="C46" t="n">
-        <v>231.3678558177418</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="D46" t="n">
-        <v>231.3678558177418</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3678558177418</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="F46" t="n">
-        <v>231.3678558177418</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="G46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="H46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="I46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="K46" t="n">
         <v>212.8076375348876</v>
@@ -7815,10 +7815,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M46" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N46" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692326</v>
       </c>
       <c r="O46" t="n">
         <v>1115.228778841302</v>
@@ -7836,22 +7836,22 @@
         <v>1289.276287324571</v>
       </c>
       <c r="T46" t="n">
-        <v>1064.609405610901</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="U46" t="n">
-        <v>775.4695140605893</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="V46" t="n">
-        <v>520.7850258547024</v>
+        <v>1174.897597268552</v>
       </c>
       <c r="W46" t="n">
-        <v>231.3678558177418</v>
+        <v>885.4804272315914</v>
       </c>
       <c r="X46" t="n">
-        <v>231.3678558177418</v>
+        <v>657.4908763335741</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.3678558177418</v>
+        <v>436.6982971900439</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>56.94306717106409</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162592839</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928483</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>15.92129162592956</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.438569758329351</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928483</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>56.94306717106501</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.92129162592936</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928469</v>
+        <v>22.15449680785803</v>
       </c>
       <c r="K21" t="n">
-        <v>15.92129162592809</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9716,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>413.0716468211403</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475554</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9959,19 +9959,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>376.0174727110772</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>323.6398960475554</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>413.0716468211403</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475554</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>413.0716468211403</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475554</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>203.1109072212974</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>413.0716468211403</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>416.3776937448823</v>
       </c>
       <c r="N39" t="n">
-        <v>426.7089574146938</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>22.76613370793216</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>5.060579271611857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599037</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>5.060579271611374</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>341.22890234787</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>113.8332951025888</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>50.15735987406521</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>180.5032311305212</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.48721104172769</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>325.421020659469</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.8741797227807</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>104.6237625681198</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>8.41845951517746</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>359.6168704684817</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.86789218515</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>17.69584188176906</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>11.58710497081483</v>
+        <v>155.0293309407442</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>360.6852428597531</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>198.9231251361166</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176904</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>195.7864033101467</v>
       </c>
       <c r="T22" t="n">
-        <v>58.3588663945238</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>309.9502217094637</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>143.3258060921759</v>
       </c>
       <c r="T23" t="n">
-        <v>21.09609363910988</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>120.4286768637074</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.1476204707265</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5.26909690081979</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>64.78890780571479</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>164.4218997312878</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>191.7743345930857</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>105.1440776316976</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>108.7912672064355</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
         <v>116.5612290399729</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.1476204707265</v>
       </c>
       <c r="S28" t="n">
         <v>201.4801154596065</v>
       </c>
       <c r="T28" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>21.09609363910999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459731</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>12.78118087881191</v>
+        <v>143.3258060921759</v>
       </c>
       <c r="T29" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>201.4801154596065</v>
       </c>
       <c r="T31" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>78.07243152261233</v>
+        <v>81.9079910670514</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>219.9029782880451</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>143.3258060921759</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>48.44852850090956</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25092,13 +25092,13 @@
         <v>166.697806127624</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I34" t="n">
         <v>116.5612290399729</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.1476204707265</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>60.96789363012499</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.03276014504581</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>35.4765259100842</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>143.3258060921759</v>
       </c>
       <c r="T35" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>219.9029782880433</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>81.90799106705117</v>
+        <v>81.9079910670514</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>263.7544829558832</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921759</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>79.93129507176405</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>81.9079910670514</v>
       </c>
       <c r="X40" t="n">
-        <v>81.90799106705117</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H41" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.3325832245973</v>
+        <v>99.33258322459731</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.3258060921759</v>
+        <v>61.95229181345194</v>
       </c>
       <c r="T41" t="n">
-        <v>21.09609363910985</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>161.1460464225481</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25809,7 +25809,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696655093</v>
+        <v>1.931832696655107</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>119.1476204707265</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.35500109531799</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>23.50285283145962</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.33258322459731</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>331.046315348575</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>22.89614180563802</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H46" t="n">
         <v>150.7296868732905</v>
@@ -26046,7 +26046,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J46" t="n">
-        <v>1.931832696655093</v>
+        <v>1.931832696655107</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>201.4801154596065</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>138.9027401683692</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>724493.1068223934</v>
+        <v>724493.1068223933</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>724493.1068223934</v>
+        <v>724493.1068223931</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724493.1068223933</v>
+        <v>724493.1068223934</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724493.1068223933</v>
+        <v>724493.1068223931</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779627.8766766341</v>
+        <v>779627.876676634</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779627.8766766342</v>
+        <v>779627.876676634</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779627.876676634</v>
+        <v>779627.8766766338</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779627.8766766342</v>
+        <v>779627.8766766338</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779627.8766766341</v>
+        <v>779627.876676634</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516051</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
         <v>489716.7007553191</v>
       </c>
       <c r="F2" t="n">
-        <v>489716.700755319</v>
+        <v>489716.7007553188</v>
       </c>
       <c r="G2" t="n">
-        <v>489716.700755319</v>
+        <v>489716.7007553189</v>
       </c>
       <c r="H2" t="n">
-        <v>489716.700755319</v>
+        <v>489716.7007553191</v>
       </c>
       <c r="I2" t="n">
+        <v>530050.914816406</v>
+      </c>
+      <c r="J2" t="n">
         <v>530050.9148164057</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>530050.9148164059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>530050.9148164057</v>
       </c>
       <c r="L2" t="n">
         <v>530050.9148164057</v>
@@ -26349,13 +26349,13 @@
         <v>530050.9148164057</v>
       </c>
       <c r="N2" t="n">
-        <v>530050.9148164057</v>
+        <v>530050.9148164059</v>
       </c>
       <c r="O2" t="n">
         <v>530050.9148164057</v>
       </c>
       <c r="P2" t="n">
-        <v>530050.914816406</v>
+        <v>530050.9148164056</v>
       </c>
     </row>
     <row r="3">
@@ -26389,10 +26389,10 @@
         <v>133368.5290586848</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910611</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>32774.53910638621</v>
       </c>
       <c r="F4" t="n">
-        <v>32774.53910638622</v>
+        <v>32774.53910638621</v>
       </c>
       <c r="G4" t="n">
         <v>32774.53910638622</v>
       </c>
       <c r="H4" t="n">
-        <v>32774.53910638621</v>
+        <v>32774.53910638622</v>
       </c>
       <c r="I4" t="n">
         <v>30961.86094063332</v>
@@ -26459,7 +26459,7 @@
         <v>30961.86094063332</v>
       </c>
       <c r="P4" t="n">
-        <v>30961.86094063332</v>
+        <v>30961.86094063331</v>
       </c>
     </row>
     <row r="5">
@@ -26493,13 +26493,13 @@
         <v>81079.66231700624</v>
       </c>
       <c r="J5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700621</v>
       </c>
       <c r="K5" t="n">
         <v>81079.66231700624</v>
       </c>
       <c r="L5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700621</v>
       </c>
       <c r="M5" t="n">
         <v>81079.66231700624</v>
@@ -26508,10 +26508,10 @@
         <v>81079.66231700624</v>
       </c>
       <c r="O5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700622</v>
       </c>
       <c r="P5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700622</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153609.2084375786</v>
+        <v>153609.2084375784</v>
       </c>
       <c r="C6" t="n">
-        <v>234378.6399691263</v>
+        <v>234378.6399691264</v>
       </c>
       <c r="D6" t="n">
-        <v>234378.6399691263</v>
+        <v>234378.6399691265</v>
       </c>
       <c r="E6" t="n">
-        <v>-293222.3242965086</v>
+        <v>-296861.5857584495</v>
       </c>
       <c r="F6" t="n">
-        <v>387770.6183653313</v>
+        <v>384131.3569033903</v>
       </c>
       <c r="G6" t="n">
-        <v>387770.6183653314</v>
+        <v>384131.3569033904</v>
       </c>
       <c r="H6" t="n">
-        <v>387770.6183653313</v>
+        <v>384131.3569033905</v>
       </c>
       <c r="I6" t="n">
-        <v>284640.8625000814</v>
+        <v>282392.4360057644</v>
       </c>
       <c r="J6" t="n">
-        <v>354949.44895966</v>
+        <v>352701.0224653428</v>
       </c>
       <c r="K6" t="n">
-        <v>418009.3915587661</v>
+        <v>415760.9650644489</v>
       </c>
       <c r="L6" t="n">
-        <v>418009.3915587661</v>
+        <v>415760.9650644491</v>
       </c>
       <c r="M6" t="n">
-        <v>247582.9749950548</v>
+        <v>245334.5485007376</v>
       </c>
       <c r="N6" t="n">
-        <v>418009.3915587661</v>
+        <v>415760.965064449</v>
       </c>
       <c r="O6" t="n">
-        <v>418009.3915587661</v>
+        <v>415760.9650644489</v>
       </c>
       <c r="P6" t="n">
-        <v>418009.3915587664</v>
+        <v>415760.9650644488</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>593.4761003380645</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="I3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="J3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="K3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="L3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="M3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="N3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="O3" t="n">
         <v>717.1233370992771</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>717.1233370992771</v>
-      </c>
-      <c r="K3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="L3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="M3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="N3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="O3" t="n">
-        <v>717.1233370992773</v>
-      </c>
-      <c r="P3" t="n">
-        <v>717.1233370992773</v>
       </c>
     </row>
     <row r="4">
@@ -27035,10 +27035,10 @@
         <v>151.5231788159597</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776586</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,19 +27432,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>51.00955661900684</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>183.6460475475031</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.45145718935679</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,16 +27472,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>49.28595652255142</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>341.4540909391266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>322.7645774165538</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>29.62878828644581</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.8617185520338</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.004192713242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196.6487885325146</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>298.5317784393868</v>
       </c>
     </row>
     <row r="9">
@@ -27934,19 +27934,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>92.32073141729899</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.598620642358</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>106.6061751778739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344606</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -32469,37 +32469,37 @@
         <v>24.43391804055156</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J20" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779019</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712528</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M20" t="n">
         <v>418.9314987074821</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426698</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q20" t="n">
         <v>257.6431848457574</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T20" t="n">
         <v>10.44398644916533</v>
@@ -32545,10 +32545,10 @@
         <v>1.276533498840365</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985301</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J21" t="n">
         <v>120.6044214847382</v>
@@ -32557,34 +32557,34 @@
         <v>206.1321659070427</v>
       </c>
       <c r="L21" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900651</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607456</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S21" t="n">
         <v>23.71104985784624</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,13 +32624,13 @@
         <v>1.070202803888313</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I22" t="n">
         <v>32.18391704784128</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K22" t="n">
         <v>124.338107579024</v>
@@ -32642,7 +32642,7 @@
         <v>167.7591540676925</v>
       </c>
       <c r="N22" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O22" t="n">
         <v>151.2683017714136</v>
@@ -32651,16 +32651,16 @@
         <v>129.4361645720919</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S22" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522791</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U22" t="n">
         <v>0.05837469839390805</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H23" t="n">
         <v>29.52458040630339</v>
@@ -32715,7 +32715,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L23" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M23" t="n">
         <v>506.2133996600339</v>
@@ -32724,25 +32724,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P23" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q23" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R23" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T23" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,7 +32782,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H24" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I24" t="n">
         <v>53.10771883235213</v>
@@ -32791,31 +32791,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K24" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M24" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N24" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P24" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S24" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T24" t="n">
         <v>6.217324026360711</v>
@@ -32864,22 +32864,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I25" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L25" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M25" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N25" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O25" t="n">
         <v>182.7841581183535</v>
@@ -32897,10 +32897,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H26" t="n">
         <v>29.52458040630339</v>
@@ -32952,7 +32952,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L26" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M26" t="n">
         <v>506.2133996600339</v>
@@ -32961,25 +32961,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P26" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R26" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S26" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T26" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H27" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I27" t="n">
         <v>53.10771883235213</v>
@@ -33028,31 +33028,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K27" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M27" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N27" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O27" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P27" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S27" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T27" t="n">
         <v>6.217324026360711</v>
@@ -33101,22 +33101,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I28" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L28" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M28" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N28" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O28" t="n">
         <v>182.7841581183535</v>
@@ -33134,10 +33134,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H29" t="n">
         <v>29.52458040630339</v>
@@ -33189,7 +33189,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L29" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M29" t="n">
         <v>506.2133996600339</v>
@@ -33198,25 +33198,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q29" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R29" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S29" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T29" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U29" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H30" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I30" t="n">
         <v>53.10771883235213</v>
@@ -33265,31 +33265,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K30" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L30" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M30" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N30" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O30" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P30" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S30" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T30" t="n">
         <v>6.217324026360711</v>
@@ -33338,22 +33338,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I31" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L31" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M31" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N31" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O31" t="n">
         <v>182.7841581183535</v>
@@ -33371,10 +33371,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H32" t="n">
         <v>29.52458040630339</v>
@@ -33426,7 +33426,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L32" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M32" t="n">
         <v>506.2133996600339</v>
@@ -33435,25 +33435,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P32" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q32" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R32" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S32" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T32" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U32" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,7 +33493,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H33" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I33" t="n">
         <v>53.10771883235213</v>
@@ -33502,31 +33502,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K33" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L33" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M33" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N33" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O33" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P33" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S33" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T33" t="n">
         <v>6.217324026360711</v>
@@ -33575,22 +33575,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I34" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L34" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M34" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N34" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O34" t="n">
         <v>182.7841581183535</v>
@@ -33608,10 +33608,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H35" t="n">
         <v>29.52458040630339</v>
@@ -33663,7 +33663,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L35" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M35" t="n">
         <v>506.2133996600339</v>
@@ -33672,25 +33672,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P35" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q35" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R35" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S35" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T35" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U35" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H36" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I36" t="n">
         <v>53.10771883235213</v>
@@ -33739,31 +33739,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K36" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M36" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N36" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O36" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P36" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T36" t="n">
         <v>6.217324026360711</v>
@@ -33812,22 +33812,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I37" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L37" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M37" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N37" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O37" t="n">
         <v>182.7841581183535</v>
@@ -33845,10 +33845,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H38" t="n">
         <v>29.52458040630339</v>
@@ -33900,7 +33900,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L38" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M38" t="n">
         <v>506.2133996600339</v>
@@ -33909,25 +33909,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q38" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R38" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S38" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T38" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U38" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H39" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I39" t="n">
         <v>53.10771883235213</v>
@@ -33976,31 +33976,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K39" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L39" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M39" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N39" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O39" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P39" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T39" t="n">
         <v>6.217324026360711</v>
@@ -34049,22 +34049,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I40" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L40" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M40" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N40" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O40" t="n">
         <v>182.7841581183535</v>
@@ -34082,10 +34082,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,31 +34125,31 @@
         <v>2.882907887836288</v>
       </c>
       <c r="H41" t="n">
-        <v>29.5245804063034</v>
+        <v>29.52458040630339</v>
       </c>
       <c r="I41" t="n">
         <v>111.1433063458086</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6832033452454</v>
+        <v>244.6832033452453</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7166942373556</v>
+        <v>366.7166942373555</v>
       </c>
       <c r="L41" t="n">
         <v>454.9444865097254</v>
       </c>
       <c r="M41" t="n">
-        <v>506.213399660034</v>
+        <v>506.2133996600339</v>
       </c>
       <c r="N41" t="n">
-        <v>514.4044616963489</v>
+        <v>514.4044616963488</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866768</v>
+        <v>485.7375463866767</v>
       </c>
       <c r="P41" t="n">
-        <v>414.5657579057184</v>
+        <v>414.5657579057183</v>
       </c>
       <c r="Q41" t="n">
         <v>311.3216191725812</v>
@@ -34158,7 +34158,7 @@
         <v>181.0934626092964</v>
       </c>
       <c r="S41" t="n">
-        <v>65.69426349406949</v>
+        <v>65.69426349406947</v>
       </c>
       <c r="T41" t="n">
         <v>12.61992927900336</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.54249170621354</v>
+        <v>1.542491706213539</v>
       </c>
       <c r="H42" t="n">
         <v>14.89722253106235</v>
       </c>
       <c r="I42" t="n">
-        <v>53.10771883235214</v>
+        <v>53.10771883235213</v>
       </c>
       <c r="J42" t="n">
         <v>145.7316396646748</v>
@@ -34225,7 +34225,7 @@
         <v>401.1763845910381</v>
       </c>
       <c r="O42" t="n">
-        <v>366.9980157323066</v>
+        <v>366.9980157323065</v>
       </c>
       <c r="P42" t="n">
         <v>294.5482627417767</v>
@@ -34234,13 +34234,13 @@
         <v>196.8977132352582</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525824</v>
+        <v>95.76979207525822</v>
       </c>
       <c r="S42" t="n">
         <v>28.65110691146639</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360713</v>
+        <v>6.217324026360711</v>
       </c>
       <c r="U42" t="n">
         <v>0.1014797175140487</v>
@@ -34283,13 +34283,13 @@
         <v>1.293173230834762</v>
       </c>
       <c r="H43" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414907</v>
       </c>
       <c r="I43" t="n">
         <v>38.8892458872854</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001768</v>
+        <v>91.42734742001767</v>
       </c>
       <c r="K43" t="n">
         <v>150.2432171824387</v>
@@ -34307,13 +34307,13 @@
         <v>182.7841581183535</v>
       </c>
       <c r="P43" t="n">
-        <v>156.4034242093243</v>
+        <v>156.4034242093242</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.2856239019909</v>
+        <v>108.2856239019908</v>
       </c>
       <c r="R43" t="n">
-        <v>58.14577090644302</v>
+        <v>58.145770906443</v>
       </c>
       <c r="S43" t="n">
         <v>22.5364825773658</v>
@@ -34322,7 +34322,7 @@
         <v>5.525376531748527</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0705367216818962</v>
+        <v>0.07053672168189619</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>2.882907887836288</v>
       </c>
       <c r="H44" t="n">
-        <v>29.5245804063034</v>
+        <v>29.52458040630339</v>
       </c>
       <c r="I44" t="n">
         <v>111.1433063458086</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6832033452454</v>
+        <v>244.6832033452453</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7166942373556</v>
+        <v>366.7166942373555</v>
       </c>
       <c r="L44" t="n">
         <v>454.9444865097254</v>
       </c>
       <c r="M44" t="n">
-        <v>506.213399660034</v>
+        <v>506.2133996600339</v>
       </c>
       <c r="N44" t="n">
-        <v>514.4044616963489</v>
+        <v>514.4044616963488</v>
       </c>
       <c r="O44" t="n">
-        <v>485.7375463866768</v>
+        <v>485.7375463866767</v>
       </c>
       <c r="P44" t="n">
-        <v>414.5657579057184</v>
+        <v>414.5657579057183</v>
       </c>
       <c r="Q44" t="n">
         <v>311.3216191725812</v>
@@ -34395,7 +34395,7 @@
         <v>181.0934626092964</v>
       </c>
       <c r="S44" t="n">
-        <v>65.69426349406949</v>
+        <v>65.69426349406947</v>
       </c>
       <c r="T44" t="n">
         <v>12.61992927900336</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.54249170621354</v>
+        <v>1.542491706213539</v>
       </c>
       <c r="H45" t="n">
         <v>14.89722253106235</v>
       </c>
       <c r="I45" t="n">
-        <v>53.10771883235214</v>
+        <v>53.10771883235213</v>
       </c>
       <c r="J45" t="n">
         <v>145.7316396646748</v>
@@ -34462,7 +34462,7 @@
         <v>401.1763845910381</v>
       </c>
       <c r="O45" t="n">
-        <v>366.9980157323066</v>
+        <v>366.9980157323065</v>
       </c>
       <c r="P45" t="n">
         <v>294.5482627417767</v>
@@ -34471,13 +34471,13 @@
         <v>196.8977132352582</v>
       </c>
       <c r="R45" t="n">
-        <v>95.76979207525824</v>
+        <v>95.76979207525822</v>
       </c>
       <c r="S45" t="n">
         <v>28.65110691146639</v>
       </c>
       <c r="T45" t="n">
-        <v>6.217324026360713</v>
+        <v>6.217324026360711</v>
       </c>
       <c r="U45" t="n">
         <v>0.1014797175140487</v>
@@ -34520,13 +34520,13 @@
         <v>1.293173230834762</v>
       </c>
       <c r="H46" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414907</v>
       </c>
       <c r="I46" t="n">
         <v>38.8892458872854</v>
       </c>
       <c r="J46" t="n">
-        <v>91.42734742001768</v>
+        <v>91.42734742001767</v>
       </c>
       <c r="K46" t="n">
         <v>150.2432171824387</v>
@@ -34544,13 +34544,13 @@
         <v>182.7841581183535</v>
       </c>
       <c r="P46" t="n">
-        <v>156.4034242093243</v>
+        <v>156.4034242093242</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.2856239019909</v>
+        <v>108.2856239019908</v>
       </c>
       <c r="R46" t="n">
-        <v>58.14577090644302</v>
+        <v>58.145770906443</v>
       </c>
       <c r="S46" t="n">
         <v>22.5364825773658</v>
@@ -34559,7 +34559,7 @@
         <v>5.525376531748527</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0705367216818962</v>
+        <v>0.07053672168189619</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584804</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>68.2907269326837</v>
@@ -35500,13 +35500,13 @@
         <v>647.0155045122267</v>
       </c>
       <c r="N12" t="n">
-        <v>257.6064425777959</v>
+        <v>680.0057497502853</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269926</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927641</v>
+        <v>125.7087941787553</v>
       </c>
       <c r="Q12" t="n">
         <v>22.96660727472408</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K15" t="n">
-        <v>84.21201855861322</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748669</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M15" t="n">
         <v>647.0155045122267</v>
@@ -35746,7 +35746,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472405</v>
+        <v>25.40517703305341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268367</v>
+        <v>125.2337941037487</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748669</v>
@@ -35974,16 +35974,16 @@
         <v>647.0155045122267</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502852</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269925</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528269</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.88789890065342</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391275</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040861</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L20" t="n">
-        <v>558.397230551716</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M20" t="n">
         <v>638.0987989730419</v>
       </c>
       <c r="N20" t="n">
-        <v>633.64410915136</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233103</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588829</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q20" t="n">
         <v>247.6524856312126</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>15.92129162592954</v>
       </c>
       <c r="K21" t="n">
-        <v>84.21201855861179</v>
+        <v>68.29072693268367</v>
       </c>
       <c r="L21" t="n">
-        <v>509.456100874867</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M21" t="n">
         <v>647.0155045122267</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502853</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269926</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P21" t="n">
         <v>109.7875025528269</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472408</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,13 +36284,13 @@
         <v>102.0686157531411</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M22" t="n">
         <v>207.3430310295331</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O22" t="n">
         <v>175.8534296854533</v>
@@ -36299,7 +36299,7 @@
         <v>126.7147238369854</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353372</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K23" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L23" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M23" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N23" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O23" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P23" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R23" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K24" t="n">
-        <v>111.237145006623</v>
+        <v>111.2371450066229</v>
       </c>
       <c r="L24" t="n">
-        <v>196.3625145889911</v>
+        <v>567.2028598924502</v>
       </c>
       <c r="M24" t="n">
-        <v>661.769831618228</v>
+        <v>714.4032485470875</v>
       </c>
       <c r="N24" t="n">
-        <v>749.1770468512583</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O24" t="n">
-        <v>618.2640905645916</v>
+        <v>548.0416673354174</v>
       </c>
       <c r="P24" t="n">
-        <v>160.5738553274465</v>
+        <v>160.5738553274464</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.91593914923664</v>
+        <v>56.91593914923661</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36524,19 +36524,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M25" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O25" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P25" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K26" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L26" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M26" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N26" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O26" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P26" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R26" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>144.985048338417</v>
       </c>
       <c r="K27" t="n">
-        <v>111.237145006623</v>
+        <v>111.2371450066229</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3625145889911</v>
+        <v>567.2028598924502</v>
       </c>
       <c r="M27" t="n">
         <v>714.4032485470875</v>
       </c>
       <c r="N27" t="n">
-        <v>645.852145218782</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O27" t="n">
-        <v>224.4017712878621</v>
+        <v>548.0416673354174</v>
       </c>
       <c r="P27" t="n">
-        <v>479.0366239673837</v>
+        <v>160.5738553274464</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.91593914923664</v>
+        <v>56.91593914923661</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36761,19 +36761,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M28" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O28" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P28" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K29" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L29" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M29" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N29" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O29" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P29" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q29" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R29" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K30" t="n">
-        <v>111.237145006623</v>
+        <v>111.2371450066229</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3625145889911</v>
+        <v>567.2028598924502</v>
       </c>
       <c r="M30" t="n">
-        <v>661.769831618228</v>
+        <v>714.4032485470875</v>
       </c>
       <c r="N30" t="n">
-        <v>749.1770468512583</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O30" t="n">
-        <v>618.2640905645916</v>
+        <v>548.0416673354174</v>
       </c>
       <c r="P30" t="n">
-        <v>160.5738553274465</v>
+        <v>160.5738553274464</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.91593914923664</v>
+        <v>56.91593914923661</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36998,19 +36998,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M31" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O31" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P31" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K32" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L32" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M32" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N32" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O32" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P32" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q32" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R32" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K33" t="n">
-        <v>111.237145006623</v>
+        <v>111.2371450066229</v>
       </c>
       <c r="L33" t="n">
-        <v>196.3625145889911</v>
+        <v>567.2028598924502</v>
       </c>
       <c r="M33" t="n">
-        <v>661.769831618228</v>
+        <v>714.4032485470875</v>
       </c>
       <c r="N33" t="n">
-        <v>749.1770468512583</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O33" t="n">
-        <v>618.2640905645916</v>
+        <v>548.0416673354174</v>
       </c>
       <c r="P33" t="n">
-        <v>160.5738553274465</v>
+        <v>160.5738553274464</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.91593914923664</v>
+        <v>56.91593914923661</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37235,19 +37235,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M34" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O34" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P34" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K35" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L35" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M35" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N35" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O35" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P35" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R35" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>18.89401299800812</v>
       </c>
       <c r="K36" t="n">
-        <v>111.237145006623</v>
+        <v>314.3480522279203</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3625145889911</v>
+        <v>567.2028598924502</v>
       </c>
       <c r="M36" t="n">
-        <v>661.769831618228</v>
+        <v>248.6981847970876</v>
       </c>
       <c r="N36" t="n">
-        <v>749.1770468512583</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O36" t="n">
-        <v>618.2640905645916</v>
+        <v>618.2640905645915</v>
       </c>
       <c r="P36" t="n">
-        <v>160.5738553274465</v>
+        <v>479.0366239673836</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.91593914923664</v>
+        <v>56.91593914923661</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37472,19 +37472,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M37" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O37" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P37" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K38" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L38" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N38" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O38" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P38" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q38" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R38" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K39" t="n">
-        <v>111.237145006623</v>
+        <v>375.7023820192015</v>
       </c>
       <c r="L39" t="n">
-        <v>196.3625145889911</v>
+        <v>196.362514588991</v>
       </c>
       <c r="M39" t="n">
-        <v>714.4032485470875</v>
+        <v>665.0758785419699</v>
       </c>
       <c r="N39" t="n">
-        <v>696.5436299223986</v>
+        <v>749.1770468512582</v>
       </c>
       <c r="O39" t="n">
-        <v>618.2640905645916</v>
+        <v>224.401771287862</v>
       </c>
       <c r="P39" t="n">
-        <v>160.5738553274465</v>
+        <v>160.5738553274464</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.91593914923664</v>
+        <v>56.91593914923661</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37709,19 +37709,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O40" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P40" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>232.7339139906329</v>
+        <v>232.7339139906328</v>
       </c>
       <c r="K41" t="n">
-        <v>470.7722557635398</v>
+        <v>470.7722557635397</v>
       </c>
       <c r="L41" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M41" t="n">
-        <v>725.3806999255938</v>
+        <v>725.3806999255937</v>
       </c>
       <c r="N41" t="n">
-        <v>722.3383225117421</v>
+        <v>722.338322511742</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4395162277355</v>
+        <v>636.4395162277353</v>
       </c>
       <c r="P41" t="n">
-        <v>505.1314703219315</v>
+        <v>505.1314703219314</v>
       </c>
       <c r="Q41" t="n">
         <v>301.3309199580364</v>
       </c>
       <c r="R41" t="n">
-        <v>31.22434466814673</v>
+        <v>31.2243446681467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.66014670594031</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K42" t="n">
-        <v>111.237145006623</v>
+        <v>116.2977242782348</v>
       </c>
       <c r="L42" t="n">
         <v>196.3625145889911</v>
       </c>
       <c r="M42" t="n">
-        <v>714.4032485470876</v>
+        <v>714.4032485470875</v>
       </c>
       <c r="N42" t="n">
-        <v>749.1770468512584</v>
+        <v>749.1770468512583</v>
       </c>
       <c r="O42" t="n">
         <v>224.4017712878621</v>
       </c>
       <c r="P42" t="n">
-        <v>479.0366239673837</v>
+        <v>160.5738553274465</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.91593914923666</v>
+        <v>266.9932268850857</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37955,10 +37955,10 @@
         <v>207.3692860323932</v>
       </c>
       <c r="P43" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742177</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.12358065029647</v>
+        <v>22.12358065029646</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>232.7339139906327</v>
+        <v>232.7339139906328</v>
       </c>
       <c r="K44" t="n">
-        <v>470.7722557635398</v>
+        <v>470.7722557635397</v>
       </c>
       <c r="L44" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M44" t="n">
-        <v>725.3806999255938</v>
+        <v>725.3806999255937</v>
       </c>
       <c r="N44" t="n">
-        <v>722.3383225117421</v>
+        <v>722.338322511742</v>
       </c>
       <c r="O44" t="n">
-        <v>636.4395162277355</v>
+        <v>636.4395162277353</v>
       </c>
       <c r="P44" t="n">
-        <v>505.1314703219315</v>
+        <v>505.1314703219314</v>
       </c>
       <c r="Q44" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580353</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814673</v>
+        <v>31.2243446681467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>144.985048338417</v>
+        <v>18.89401299800812</v>
       </c>
       <c r="K45" t="n">
-        <v>116.2977242782344</v>
+        <v>111.237145006623</v>
       </c>
       <c r="L45" t="n">
         <v>196.3625145889911</v>
       </c>
       <c r="M45" t="n">
-        <v>714.4032485470876</v>
+        <v>714.4032485470875</v>
       </c>
       <c r="N45" t="n">
-        <v>749.1770468512584</v>
+        <v>749.1770468512583</v>
       </c>
       <c r="O45" t="n">
-        <v>224.4017712878621</v>
+        <v>565.630673635732</v>
       </c>
       <c r="P45" t="n">
         <v>160.5738553274465</v>
       </c>
       <c r="Q45" t="n">
-        <v>266.9932268850857</v>
+        <v>56.91593914923664</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38192,10 +38192,10 @@
         <v>207.3692860323932</v>
       </c>
       <c r="P46" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742177</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.12358065029647</v>
+        <v>22.12358065029646</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
